--- a/Projet APEX/apex.xlsx
+++ b/Projet APEX/apex.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vress\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dr.naertis\Github\ESIEA3A_INF3031_BDD\Projet APEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>UTILISATEUR</t>
   </si>
@@ -135,6 +135,39 @@
   </si>
   <si>
     <t>fk_start_date</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>tax_value</t>
+  </si>
+  <si>
+    <t>transactionDate</t>
+  </si>
+  <si>
+    <t>refunded</t>
+  </si>
+  <si>
+    <t>Descritption</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>isGlobal</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>enDate</t>
   </si>
 </sst>
 </file>
@@ -493,21 +526,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J16"/>
+  <dimension ref="B4:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -541,12 +574,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -555,7 +588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -563,13 +596,16 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -577,16 +613,16 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
       </c>
       <c r="J8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -597,13 +633,13 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -614,66 +650,114 @@
         <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>7</v>
       </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>1</v>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
         <v>30</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Projet APEX/apex.xlsx
+++ b/Projet APEX/apex.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>UTILISATEUR</t>
   </si>
@@ -38,9 +38,6 @@
     <t>last_name</t>
   </si>
   <si>
-    <t>CALENDAR</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>mail</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>TRANSAC</t>
-  </si>
-  <si>
     <t>CODE</t>
   </si>
   <si>
@@ -119,42 +110,21 @@
     <t>fk_buyer_id</t>
   </si>
   <si>
-    <t>fk_buy_date</t>
-  </si>
-  <si>
     <t>fk_right_level</t>
   </si>
   <si>
-    <t>fk_birth_date</t>
-  </si>
-  <si>
     <t>fk_platform_id</t>
   </si>
   <si>
-    <t>fk_end_date</t>
-  </si>
-  <si>
-    <t>fk_start_date</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>tax_value</t>
   </si>
   <si>
-    <t>transactionDate</t>
-  </si>
-  <si>
-    <t>refunded</t>
-  </si>
-  <si>
     <t>Descritption</t>
   </si>
   <si>
@@ -168,6 +138,66 @@
   </si>
   <si>
     <t>enDate</t>
+  </si>
+  <si>
+    <t>TRANSACT</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>fk_id_promotion</t>
+  </si>
+  <si>
+    <t>refund_date</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>transaction_date</t>
+  </si>
+  <si>
+    <t>AUC_COD</t>
+  </si>
+  <si>
+    <t>id_auc_code</t>
+  </si>
+  <si>
+    <t>has_been_sold</t>
+  </si>
+  <si>
+    <t>fk_auction_id</t>
+  </si>
+  <si>
+    <t>fk_RIGHT_ACCESS_id</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>fk_country</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>id_country</t>
+  </si>
+  <si>
+    <t>phone_extension</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>fk_id_country</t>
   </si>
 </sst>
 </file>
@@ -209,9 +239,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,44 +557,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J22"/>
+  <dimension ref="B3:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" t="s">
         <v>1</v>
       </c>
@@ -574,191 +614,239 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
       <c r="H15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
       <c r="F16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
         <v>42</v>
       </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
+      <c r="H21" t="s">
         <v>29</v>
       </c>
-      <c r="H20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
